--- a/DeprecationCandidates.xlsx
+++ b/DeprecationCandidates.xlsx
@@ -598,11 +598,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -610,11 +610,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -622,27 +622,27 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -751,8 +751,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C44" activeCellId="0" sqref="C44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -808,7 +808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -822,7 +822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -836,7 +836,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -850,7 +850,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -864,7 +864,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="47.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -878,7 +878,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -892,7 +892,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -906,7 +906,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -920,7 +920,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -934,7 +934,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -948,7 +948,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -962,7 +962,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -976,7 +976,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>57</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>67</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="2" t="s">
         <v>73</v>
       </c>
@@ -1122,7 +1122,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0"/>
+      <c r="A27" s="11"/>
       <c r="B27" s="2" t="s">
         <v>77</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="2" t="s">
         <v>80</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="2" t="s">
         <v>86</v>
       </c>
@@ -1233,17 +1233,17 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="5" t="s">
         <v>105</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="2" t="s">
         <v>107</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="2" t="s">
         <v>127</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="2" t="s">
         <v>130</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="2" t="s">
         <v>132</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="36.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="2" t="s">
         <v>133</v>
       </c>

--- a/DeprecationCandidates.xlsx
+++ b/DeprecationCandidates.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Tabelle1!$A$1:$E$50</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Tabelle1!$A$1:$E$56</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="168">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -40,6 +40,42 @@
     <t xml:space="preserve">Related issue</t>
   </si>
   <si>
+    <t xml:space="preserve">ImportExport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data.ExportCSV+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data.ExportCSV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOTB node doesn’t support custom delimiters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data.ImportCSV+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data.ImportCSV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List.Inspect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Booleans.AnyFalse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnyFalse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Works in 2023 – need to check previous versions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Booleans.AnyTrue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnyTrue</t>
+  </si>
+  <si>
     <t xml:space="preserve">List.Modify</t>
   </si>
   <si>
@@ -88,6 +124,27 @@
     <t xml:space="preserve">OOTB node can define precision only by number of digits</t>
   </si>
   <si>
+    <t xml:space="preserve">Revit.Application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FamilyDocument.FamilyParameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FamilyDocument.Parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOTB node doesn’t automatically use the current FamilyDocument, instead requires a FamilyDocument object as input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FamilyDocument.FamilyTypes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FamilyDocument.Types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOTB node returns the family type name, not the family type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Revit.Elements</t>
   </si>
   <si>
@@ -167,6 +224,12 @@
   </si>
   <si>
     <t xml:space="preserve">OOTB node does not retrieve railings hosted on input elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Element.JoinGeometry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Needs testing</t>
   </si>
   <si>
     <t xml:space="preserve">Element.Location+</t>
@@ -250,24 +313,46 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> – will be removed in 2024</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">FamilyType.Function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WallType.Function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No OOTB nodes for elements other than WallTypes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group.Members</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group.GetMembers</t>
+    <t xml:space="preserve">ElevationMarker.Views</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ElevationMarker.GetView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOTB node requires user to specify index of view</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FamilyParameter.GetValueByFamilyType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FamilyDocument.GetParameterValueByName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FamilyParameter.SetFormula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FamilyDocument.SetFormula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FamilyType.Duplicate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ElementType.Duplicate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOTB node outputs ElementType objects which do not play well with subsequent nodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FamilyType.FamilyName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ElementType.FamilyName</t>
   </si>
   <si>
     <r>
@@ -303,6 +388,63 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">FamilyType.Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WallType.Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No OOTB nodes for elements other than WallTypes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floor.SlabShapeByPoints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floor.AddPoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOTB node returns a floor object for each point in the input list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/DynamoDS/DynamoRevit/issues/1789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group.FromElements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group.ByElements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOTB node does not support naming of created groups and has no output for ungroupable elements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group.Members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group.GetMembers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group.Ungroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group.UngroupElements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOTB node has no option to disable returning the ungrouped elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roof.SlabShapeByPoints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roof.AddPoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOTB node is broken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/DynamoDS/DynamoRevit/issues/1790</t>
+  </si>
+  <si>
     <t xml:space="preserve">TextElement.SetText</t>
   </si>
   <si>
@@ -318,38 +460,6 @@
     <t xml:space="preserve">ModelText.Text &amp; TextNote.Text</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Identical as of Revit </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2021</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> – will be removed in 2023</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">WallType.Kind</t>
   </si>
   <si>
@@ -371,7 +481,7 @@
     <t xml:space="preserve">All Elements of Family Type</t>
   </si>
   <si>
-    <t xml:space="preserve">OOTB node does not support loadable families and collecting from linked models</t>
+    <t xml:space="preserve">OOTB node does not support system families and collecting from linked models</t>
   </si>
   <si>
     <t xml:space="preserve">All Elements of Type+</t>
@@ -380,7 +490,7 @@
     <t xml:space="preserve">All Elements of Type</t>
   </si>
   <si>
-    <t xml:space="preserve">OOTB node does not support collecting from linked models and has no SchemaGUID</t>
+    <t xml:space="preserve">OOTB node does not support collecting from linked models and has no SchemaGUID filter</t>
   </si>
   <si>
     <t xml:space="preserve">Revit.Selection.Miscellaneous</t>
@@ -389,7 +499,7 @@
     <t xml:space="preserve">Element.ByID</t>
   </si>
   <si>
-    <t xml:space="preserve">Element.By Id</t>
+    <t xml:space="preserve">Element By Id</t>
   </si>
   <si>
     <t xml:space="preserve">OOTB node does not support collecting from linked models</t>
@@ -401,133 +511,61 @@
     <t xml:space="preserve">Sheet.Schedules</t>
   </si>
   <si>
+    <t xml:space="preserve">View.Duplicate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View.DuplicateView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOTB node has no input for new view name (instead works with prefix/suffix)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View.DuplicateAsDependent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View.DuplicateWithDetailing</t>
+  </si>
+  <si>
     <t xml:space="preserve">View.IsViewTemplate+</t>
   </si>
   <si>
     <t xml:space="preserve">View.IsViewTemplate</t>
   </si>
   <si>
-    <t xml:space="preserve">OOTB node doesn*t support all view types</t>
+    <t xml:space="preserve">OOTB node doesn’t support all view types</t>
   </si>
   <si>
     <t xml:space="preserve">https://github.com/DynamoDS/DynamoRevit/issues/1815</t>
   </si>
   <si>
-    <t xml:space="preserve">Element. JoinGeometry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/DynamoDS/DynamoRevit/pull/2456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Element. OverrideTransparencyInView</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Element. OverrideInView</t>
+    <t xml:space="preserve">View.OverrideElementTransparency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Element.OverrideInView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOTB node is limited to active view</t>
   </si>
   <si>
     <t xml:space="preserve">https://github.com/DynamoDS/DynamoRevit/issues/1812</t>
   </si>
   <si>
-    <t xml:space="preserve">Element. ResetOverridesInView</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ElevationMarker. Views</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ElevationMarker. GetView</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/DynamoDS/DynamoRevit/pull/2480</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FamilyDocument. FamilyParameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FamilyDocument. Parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/DynamoDS/DynamoRevit/pull/2490</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FamilyParameter. SetFormula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FamilyDocument. SetFormula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FamilyType. Duplicate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ElementType. Duplicate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/DynamoDS/DynamoRevit/pull/2486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FamilyType. FamilyName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ElementType. FamilyName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floor. SlabShapeByPoints</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floor. AddPoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/DynamoDS/DynamoRevit/issues/1789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group. FromElements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group. ByElements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/DynamoDS/DynamoRevit/pull/2478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group. Ungroup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group. UngroupElements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mesh. FaceVertices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depends on Mesh.IntersectionWithPlane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mesh. IntersectionWithPlane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geometry. Intersect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/DynamoDS/Dynamo/issues/3749</t>
+    <t xml:space="preserve">View.ResetElementOverrides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Script.ControlFlow</t>
   </si>
   <si>
     <t xml:space="preserve">Passthrough</t>
   </si>
   <si>
-    <t xml:space="preserve">...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/DynamoDS/Dynamo/issues/7482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roof. SlabShapeByPoints</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roof. AddPoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/DynamoDS/DynamoRevit/issues/1790</t>
+    <t xml:space="preserve">---</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No OOTB implemented yet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/DynamoDS/DynamoWishlist/issues/61</t>
   </si>
   <si>
     <t xml:space="preserve">ScopeIf+</t>
@@ -536,28 +574,19 @@
     <t xml:space="preserve">ScopeIf / If</t>
   </si>
   <si>
-    <t xml:space="preserve">https://github.com/DynamoDS/Dynamo/issues/6258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String. ReplaceMultiple / String. Replace+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String. Replace</t>
+    <t xml:space="preserve">String.Modify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String.Replace+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String.Replace</t>
   </si>
   <si>
     <t xml:space="preserve">OOTB node can only replace one search term at a time</t>
   </si>
   <si>
-    <t xml:space="preserve">Topography. IntersectionWithPlane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">View. Duplicate / DuplicateAsDependent / DuplicateWithDetailing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">View. DuplicateView</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/DynamoDS/DynamoRevit/pull/2589</t>
+    <t xml:space="preserve">String.ReplaceMultiple</t>
   </si>
 </sst>
 </file>
@@ -567,7 +596,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -611,19 +640,19 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -666,7 +695,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -695,15 +724,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -716,7 +749,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -728,6 +761,13 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -812,12 +852,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ50"/>
+  <dimension ref="A1:AMJ56"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
+      <selection pane="bottomLeft" activeCell="C56" activeCellId="0" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -874,41 +914,40 @@
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
+      <c r="D5" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
@@ -920,113 +959,112 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="2" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="1" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="2" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>45</v>
@@ -1038,9 +1076,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>48</v>
@@ -1054,7 +1092,7 @@
     </row>
     <row r="16" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>51</v>
@@ -1066,9 +1104,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>54</v>
@@ -1079,28 +1117,27 @@
       <c r="D17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E17" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>61</v>
@@ -1112,136 +1149,142 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="8" t="s">
+    <row r="20" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8" t="s">
+      <c r="C22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="D22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="9" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="2" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="8" t="s">
+      <c r="C24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="D24" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="8" t="s">
+      <c r="C25" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="1" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="C27" s="9" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>91</v>
@@ -1249,221 +1292,281 @@
       <c r="C29" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="s">
+      <c r="C30" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="7"/>
+      <c r="D30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="C32" s="9" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="1" t="s">
+      <c r="D32" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="37" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B37" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>111</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="8"/>
     </row>
     <row r="38" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B38" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>117</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B39" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E40" s="7" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="1" t="s">
+    </row>
+    <row r="40" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="C40" s="9" t="s">
         <v>124</v>
       </c>
+      <c r="D40" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="B42" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E42" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="B44" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>134</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="B45" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E46" s="7" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D45" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="B47" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>143</v>
@@ -1473,29 +1576,132 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="B49" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="B50" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E50" s="7" t="s">
         <v>148</v>
       </c>
+      <c r="D50" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54" s="8"/>
+    </row>
+    <row r="55" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>166</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E50"/>
+  <autoFilter ref="A1:E56"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/DeprecationCandidates.xlsx
+++ b/DeprecationCandidates.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Tabelle1!$A$1:$E$56</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Tabelle1!$A$1:$E$64</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="186">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -40,6 +40,18 @@
     <t xml:space="preserve">Related issue</t>
   </si>
   <si>
+    <t xml:space="preserve">Geometry.Solids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solid.ByUnion+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solid.ByUnion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOTB returns null when failing to join all solids</t>
+  </si>
+  <si>
     <t xml:space="preserve">ImportExport</t>
   </si>
   <si>
@@ -199,7 +211,7 @@
     <t xml:space="preserve">https://github.com/DynamoDS/DynamoWishlist/issues/233</t>
   </si>
   <si>
-    <t xml:space="preserve">Element.Host</t>
+    <t xml:space="preserve">Element.Host+</t>
   </si>
   <si>
     <t xml:space="preserve">FamilyInstance.GetHost</t>
@@ -253,10 +265,10 @@
     <t xml:space="preserve">Element.Name+</t>
   </si>
   <si>
-    <t xml:space="preserve">Element.Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OOTB node doesn’t support all element types and doesn*t return localized names (if available)</t>
+    <t xml:space="preserve">Element.Name etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOTB node doesn’t support all element types (hence multiple OOTB nodes for retrieving names) and doesn’t return localized names (if available)</t>
   </si>
   <si>
     <t xml:space="preserve">Element.Panels</t>
@@ -328,6 +340,12 @@
     <t xml:space="preserve">OOTB node requires user to specify index of view</t>
   </si>
   <si>
+    <t xml:space="preserve">Family.Types+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family.Types</t>
+  </si>
+  <si>
     <t xml:space="preserve">FamilyParameter.GetValueByFamilyType</t>
   </si>
   <si>
@@ -445,6 +463,15 @@
     <t xml:space="preserve">https://github.com/DynamoDS/DynamoRevit/issues/1790</t>
   </si>
   <si>
+    <t xml:space="preserve">Room.Boundaries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room.FinishBoundary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOTB node doesn't return room bounding elements</t>
+  </si>
+  <si>
     <t xml:space="preserve">TextElement.SetText</t>
   </si>
   <si>
@@ -475,24 +502,24 @@
     <t xml:space="preserve">OOTB node does not support 'exotic' categories like Legend Components and collecting from linked models</t>
   </si>
   <si>
+    <t xml:space="preserve">All Elements of Class+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Elements of Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOTB node does not support collecting from linked models and has no SchemaGUID filter</t>
+  </si>
+  <si>
     <t xml:space="preserve">All Elements of Family Type+</t>
   </si>
   <si>
-    <t xml:space="preserve">All Elements of Family Type</t>
+    <t xml:space="preserve">All Elements of Family Type / FamilyInstance.ByFamilyType</t>
   </si>
   <si>
     <t xml:space="preserve">OOTB node does not support system families and collecting from linked models</t>
   </si>
   <si>
-    <t xml:space="preserve">All Elements of Type+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All Elements of Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OOTB node does not support collecting from linked models and has no SchemaGUID filter</t>
-  </si>
-  <si>
     <t xml:space="preserve">Revit.Selection.Miscellaneous</t>
   </si>
   <si>
@@ -511,6 +538,15 @@
     <t xml:space="preserve">Sheet.Schedules</t>
   </si>
   <si>
+    <t xml:space="preserve">View.CategoryIsVisible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View.IsCategoryHidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View.Direction</t>
+  </si>
+  <si>
     <t xml:space="preserve">View.Duplicate</t>
   </si>
   <si>
@@ -553,6 +589,21 @@
     <t xml:space="preserve">View.ResetElementOverrides</t>
   </si>
   <si>
+    <t xml:space="preserve">View.Scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View.TemporarilyIsolateCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View.IsolateCategoriesTemporary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View.TemporarilyIsolateElement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View.IsolateElementsTemporary</t>
+  </si>
+  <si>
     <t xml:space="preserve">Script.ControlFlow</t>
   </si>
   <si>
@@ -587,6 +638,9 @@
   </si>
   <si>
     <t xml:space="preserve">String.ReplaceMultiple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schedule.Fields</t>
   </si>
 </sst>
 </file>
@@ -695,7 +749,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -724,11 +778,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -738,6 +808,22 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -760,14 +846,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
+          <fgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
+          <fgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -852,12 +938,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ56"/>
+  <dimension ref="A1:AMJ65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C56" activeCellId="0" sqref="C56"/>
+      <selection pane="bottomLeft" activeCell="C69" activeCellId="0" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -889,8 +975,8 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="3" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -899,84 +985,86 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>25</v>
@@ -987,38 +1075,39 @@
       <c r="D8" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>34</v>
@@ -1029,25 +1118,25 @@
       <c r="D11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>41</v>
@@ -1058,13 +1147,10 @@
       <c r="D13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>45</v>
@@ -1075,55 +1161,55 @@
       <c r="D14" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>58</v>
@@ -1134,113 +1220,113 @@
       <c r="D18" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="E18" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="2" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>82</v>
@@ -1251,99 +1337,101 @@
       <c r="D26" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="E26" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>101</v>
@@ -1354,201 +1442,206 @@
       <c r="D33" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="1" t="s">
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D35" s="2" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E35" s="8"/>
-    </row>
-    <row r="36" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="9" t="s">
+      <c r="C36" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="D36" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E36" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="E37" s="11"/>
+    </row>
+    <row r="38" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="C38" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="D38" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" s="13"/>
+    </row>
+    <row r="39" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="9" t="s">
+      <c r="C40" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="D40" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>100</v>
+      <c r="E40" s="11" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E41" s="11"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C43" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D43" s="2" t="s">
+    </row>
+    <row r="43" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="13" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B44" s="1" t="s">
+      <c r="C43" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D43" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E43" s="13"/>
+    </row>
+    <row r="44" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="C44" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E44" s="13"/>
+    </row>
+    <row r="45" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D45" s="2" t="s">
+    </row>
+    <row r="46" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9" t="s">
+      <c r="C46" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="D46" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" s="8"/>
-    </row>
-    <row r="47" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="47" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>142</v>
@@ -1559,149 +1652,284 @@
       <c r="D47" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E47" s="8"/>
     </row>
     <row r="48" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D50" s="2" t="s">
+      <c r="A49" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="B49" s="13" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B51" s="1" t="s">
+      <c r="C49" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" s="15"/>
+    </row>
+    <row r="50" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C50" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D50" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="AMI50" s="17"/>
+      <c r="AMJ50" s="17"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="C51" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" s="9"/>
+    </row>
+    <row r="52" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="D52" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>156</v>
+      </c>
+      <c r="E52" s="11"/>
+    </row>
+    <row r="53" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="C54" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="C55" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B54" s="9" t="s">
+      <c r="D55" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="E55" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="D54" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E54" s="8"/>
-    </row>
-    <row r="55" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
+    </row>
+    <row r="56" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D56" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="E56" s="11" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B56" s="1" t="s">
+    <row r="57" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C57" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="E57" s="11" t="s">
         <v>166</v>
       </c>
     </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E58" s="9"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" s="9"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E60" s="9"/>
+    </row>
+    <row r="61" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E62" s="15"/>
+    </row>
+    <row r="63" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E65" s="9"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E56"/>
+  <autoFilter ref="A1:E64"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
